--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_first20.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_first20.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>Abbrevation</t>
   </si>
@@ -32,81 +32,81 @@
     <t>rigid</t>
   </si>
   <si>
-    <t>27</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>51</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>69</t>
+    <t>55</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>32</t>
+    <t>HRIP</t>
   </si>
   <si>
     <t>HRIN</t>
   </si>
   <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
     <t>AN</t>
   </si>
   <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>HRIP</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t>TL</t>
   </si>
   <si>
@@ -116,21 +116,21 @@
     <t>R</t>
   </si>
   <si>
+    <t>perceived positive Human-Robot-Interaction</t>
+  </si>
+  <si>
     <t>perceived negative Human-Robot-Interaction</t>
   </si>
   <si>
+    <t>perceived technological possibilities</t>
+  </si>
+  <si>
+    <t>perceived safety</t>
+  </si>
+  <si>
     <t>perceived negative anthropomorphism</t>
   </si>
   <si>
-    <t>perceived technological possibilities</t>
-  </si>
-  <si>
-    <t>perceived positive Human-Robot-Interaction</t>
-  </si>
-  <si>
-    <t>perceived safety</t>
-  </si>
-  <si>
     <t>perceived technological limitations</t>
   </si>
   <si>
@@ -140,118 +140,121 @@
     <t>perceived risks</t>
   </si>
   <si>
-    <t>Dependence</t>
+    <t>Emotional Support and Social Interaction</t>
+  </si>
+  <si>
+    <t>Emotional Dependence</t>
+  </si>
+  <si>
+    <t>Target Demographic</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Assistance and Cognitive Support</t>
+  </si>
+  <si>
+    <t>Material</t>
   </si>
   <si>
     <t>Lack of Empathy</t>
   </si>
   <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Target Demographic</t>
-  </si>
-  <si>
-    <t>Robotic Assistance</t>
+    <t>Limited Assistance</t>
+  </si>
+  <si>
+    <t>Natural Interactions</t>
+  </si>
+  <si>
+    <t>Lower Adaptability</t>
+  </si>
+  <si>
+    <t>Limitations</t>
   </si>
   <si>
     <t>Emotional Support</t>
   </si>
   <si>
-    <t>Limitations</t>
-  </si>
-  <si>
-    <t>Promote Interaction</t>
-  </si>
-  <si>
-    <t>Companion</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Limited Assistance</t>
-  </si>
-  <si>
     <t>Lack of Humanity</t>
   </si>
   <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Lower Adaptability</t>
-  </si>
-  <si>
-    <t>Unhealthy Relationships</t>
+    <t>Reliability</t>
   </si>
   <si>
     <t>Technical Issues</t>
   </si>
   <si>
+    <t>Therapy</t>
+  </si>
+  <si>
     <t>Usability</t>
   </si>
   <si>
-    <t>Superficial Interaction</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants discuss reliance on socially assistive robots for various tasks, emphasizing the nuanced perspectives on the benefits and risks of dependence, including reduced human contact and emotional impacts.</t>
+    <t>Individual Response</t>
+  </si>
+  <si>
+    <t>Individualized Attention</t>
+  </si>
+  <si>
+    <t>Identifies instances where socially assistive robots are seen as encouraging social interaction, particularly for introverted or lonely individuals, fostering increased engagement with others. This also includes their role in providing emotional support and companionship, focusing on the benefits of fostering connections and addressing social isolation.</t>
+  </si>
+  <si>
+    <t>Identifies instances where individuals form emotional attachments to socially assistive robots, viewing them as companions or substitutes for human relationships, highlighting concerns around emotional replacement, emotional blunting, and pseudo-relationships.</t>
+  </si>
+  <si>
+    <t>Identifies references to specific groups or populations that socially assistive robots are designed to benefit, such as socially isolated individuals or the elderly, within the context of discussing the key benefits and risks of Human-Robot-Interaction.</t>
+  </si>
+  <si>
+    <t>Captures references to the accessibility and presence of socially assistive robots beyond standard operating hours in the context of discussing the benefits and risks of their technological capabilities.</t>
+  </si>
+  <si>
+    <t>Identifies instances where participants highlight the positive impact of socially assistive robots in assuming degrading tasks, enhancing efficiency and quality of life. Additionally, this includes their role in improving attention and supporting individuals with depression.</t>
+  </si>
+  <si>
+    <t>Highlights instances where participants evaluate the differences in materials used in socially assistive robots, with a focus on the low risk of injury during interactions or accidents due to the soft materials, leading to higher acceptance.</t>
   </si>
   <si>
     <t>Captures the inability of socially assistive robots to convey human warmth or genuine emotional connection, highlighting a key concern in the context of perceived negative anthropomorphism.</t>
   </si>
   <si>
-    <t>Captures references to the accessibility and presence of socially assistive robots beyond standard operating hours in the context of discussing the benefits and risks of their technological capabilities.</t>
-  </si>
-  <si>
-    <t>Identifies references to specific groups or populations that socially assistive robots are designed to benefit, such as socially isolated individuals or the elderly, within the context of discussing the key benefits and risks of Human-Robot-Interaction.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants highlight the positive impact of socially assistive robots in assuming degrading tasks, enhancing efficiency and quality of life.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express a desire for emotional support from socially assistive robots, including the emotional and sensory benefits of soft, life-like materials in facilitating interactions.</t>
+    <t>Denotes instances where participants express concerns about socially assistive robots being able to offer only restricted support, particularly in urgent or critical scenarios.</t>
+  </si>
+  <si>
+    <t>Highlights the importance of human-like movements, gestures, and reactions to enhance the realism and comfort of interactions with socially assistive robots.</t>
+  </si>
+  <si>
+    <t>Identifies instances where participants express concerns about the restricted ability to personalize or modify socially assistive robots to suit individual needs or preferences, and their limited flexibility in adapting to different environments or changing user requirements.</t>
   </si>
   <si>
     <t>Highlights the acknowledgment of the limitations of robots in understanding and responding to human emotions and needs, particularly in providing genuine emotional support and connection.</t>
   </si>
   <si>
-    <t>Identifies instances where socially assistive robots are seen as encouraging social interaction, particularly for introverted or lonely individuals, fostering increased engagement with others.</t>
-  </si>
-  <si>
-    <t>Captures instances where participants express the potential for emotional attachment and companionship with socially assistive robots, highlighting the perceived benefits of forming a close relationship with these machines.</t>
-  </si>
-  <si>
-    <t>Highlights instances where participants evaluate the differences in materials used in socially assistive robots, with a focus on the low risk of injury during interactions or accidents due to the soft materials, leading to higher acceptance.</t>
-  </si>
-  <si>
-    <t>Denotes instances where participants express concerns about socially assistive robots being able to offer only restricted support, particularly in urgent or critical scenarios.</t>
+    <t>Captures instances where participants attribute emotional support qualities to socially assistive robots, viewing them as friends or listeners that aid in coping with thoughts and feelings, especially in challenging emotional situations.</t>
+  </si>
+  <si>
+    <t>Captures instances where participants express a sense of loss or absence in human interactions and empathy that cannot be adequately replaced by socially assistive robots in the context of Human-Robot-Interaction, emphasizing a preference for personalized and emotionally engaging experiences.</t>
   </si>
   <si>
     <t>Identifies instances where participants express a preference for socially assistive robots designed with soft, relatable materials, such as silicone, which foster physical affection and make the robot more approachable and human-like.</t>
   </si>
   <si>
-    <t>Captures instances where participants emphasize the irreplaceable value of human empathy and connection, which cannot be adequately replicated by interactions with robots.</t>
-  </si>
-  <si>
-    <t>Identifies instances in the data where participants highlight the effectiveness and productivity of socially assistive robots in performing tasks efficiently, with arguments that robots are working faster.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express concerns about the restricted ability to personalize or modify socially assistive robots to suit individual needs or preferences, and their limited flexibility in adapting to different environments or changing user requirements.</t>
-  </si>
-  <si>
-    <t>Captures instances where participants attribute emotional support qualities to socially assistive robots, viewing them as friends or listeners that aid in coping with thoughts and feelings, especially in challenging emotional situations.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express concerns about forming unhealthy dynamics with socially assistive robots, potentially leading to decreased human contact and distorted emotional interactions.</t>
+    <t>Captures instances where participants highlight the potential benefits of socially assistive robots in enhancing safety through quick emergency response capabilities and accuracy, and being available 24/7.</t>
   </si>
   <si>
     <t>Identifies instances where participants express concerns or frustrations related to malfunctions, glitches, or limitations in the technical performance of socially assistive robots, highlighting potential disruptions or challenges in their use.</t>
   </si>
   <si>
+    <t>Identifies instances where socially assistive robots are discussed as potential tools for therapy.</t>
+  </si>
+  <si>
     <t>Captures references to concerns about the functionality and practicality of socially assistive robots, including issues related to technical malfunctions and potential user health impacts.</t>
   </si>
   <si>
-    <t>Captures concerns that interactions with robots may feel insincere or lack depth compared to human connections, raising questions about the authenticity of such engagements.</t>
+    <t>Captures the varying individual reactions to physical closeness in the context of Human-Robot-Interaction, highlighting differing preferences and triggers among participants, with a focus on comfort levels and diverse personal boundaries.</t>
+  </si>
+  <si>
+    <t>Identifies instances where the potential benefits of socially assistive robots are highlighted through the provision of personalized and individualized attention, such as tailoring care to specific needs in settings like nursing homes.</t>
   </si>
 </sst>
 </file>
@@ -337,13 +340,13 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -360,13 +363,13 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
@@ -374,22 +377,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -397,22 +400,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" t="n">
         <v>16.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -420,16 +423,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" t="n">
         <v>15.0</v>
@@ -452,13 +455,13 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
@@ -466,22 +469,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F8" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -489,22 +492,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -512,22 +515,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" t="n">
         <v>13.0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -535,22 +538,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
         <v>13.0</v>
       </c>
       <c r="G11" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -558,22 +561,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -587,16 +590,16 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G13" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -604,22 +607,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -627,22 +630,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G15" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
@@ -650,22 +653,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="n">
         <v>10.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
@@ -673,22 +676,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="n">
         <v>9.0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
@@ -696,22 +699,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" t="n">
         <v>9.0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -719,22 +722,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="n">
         <v>9.0</v>
       </c>
       <c r="G19" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -742,22 +745,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
@@ -771,16 +774,16 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="n">
         <v>8.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_first20.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_first20.xlsx
@@ -411,234 +411,234 @@
         </is>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>perceived negative Human-Robot-Interaction</t>
+          <t>perceived positive Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Emotional Dependence</t>
+          <t>Target Demographic</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Identifies instances where individuals form emotional attachments to socially assistive robots, viewing them as companions or substitutes for human relationships, highlighting concerns around emotional replacement, emotional blunting, and pseudo-relationships.</t>
+          <t>Identifies references to specific groups or populations that socially assistive robots are designed to benefit, such as socially isolated individuals or the elderly, within the context of discussing the key benefits and risks of Human-Robot-Interaction.</t>
         </is>
       </c>
       <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
         <v>16</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>perceived positive Human-Robot-Interaction</t>
+          <t>perceived negative anthropomorphism</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Target Demographic</t>
+          <t>Lack of Empathy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Identifies references to specific groups or populations that socially assistive robots are designed to benefit, such as socially isolated individuals or the elderly, within the context of discussing the key benefits and risks of Human-Robot-Interaction.</t>
+          <t>Captures the inability of socially assistive robots to convey human warmth or genuine emotional connection, highlighting a key concern in the context of perceived negative anthropomorphism.</t>
         </is>
       </c>
       <c r="E4">
         <v>16</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>perceived technological possibilities</t>
+          <t>perceived negative Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Availability</t>
+          <t>Lack of Humanity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Captures references to the accessibility and presence of socially assistive robots beyond standard operating hours in the context of discussing the benefits and risks of their technological capabilities.</t>
+          <t>Captures instances where participants express a sense of loss or absence in human interactions and empathy that cannot be adequately replaced by socially assistive robots in the context of Human-Robot-Interaction, emphasizing a preference for personalized and emotionally engaging experiences.</t>
         </is>
       </c>
       <c r="E5">
         <v>16</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>perceived positive Human-Robot-Interaction</t>
+          <t>perceived technological limitations</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Assistance and Cognitive Support</t>
+          <t>Limited Assistance</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Identifies instances where participants highlight the positive impact of socially assistive robots in assuming degrading tasks, enhancing efficiency and quality of life. Additionally, this includes their role in improving attention and supporting individuals with depression.</t>
+          <t>Denotes instances where participants express concerns about socially assistive robots being able to offer only restricted support, particularly in urgent or critical scenarios.</t>
         </is>
       </c>
       <c r="E6">
         <v>15</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived negative Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Emotional Dependence</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Highlights instances where participants evaluate the differences in materials used in socially assistive robots, with a focus on the low risk of injury during interactions or accidents due to the soft materials, leading to higher acceptance.</t>
+          <t>Identifies instances where individuals form emotional attachments to socially assistive robots, viewing them as companions or substitutes for human relationships, highlighting concerns around emotional replacement, emotional blunting, and pseudo-relationships.</t>
         </is>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AN</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>perceived negative anthropomorphism</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lack of Empathy</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Captures the inability of socially assistive robots to convey human warmth or genuine emotional connection, highlighting a key concern in the context of perceived negative anthropomorphism.</t>
+          <t>Highlights instances where participants evaluate the differences in materials used in socially assistive robots, with a focus on the low risk of injury during interactions or accidents due to the soft materials, leading to higher acceptance.</t>
         </is>
       </c>
       <c r="E8">
         <v>14</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>perceived technological limitations</t>
+          <t>perceived negative anthropomorphism</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Limited Assistance</t>
+          <t>Limitations</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Denotes instances where participants express concerns about socially assistive robots being able to offer only restricted support, particularly in urgent or critical scenarios.</t>
+          <t>Highlights the acknowledgment of the limitations of robots in understanding and responding to human emotions and needs, particularly in providing genuine emotional support and connection.</t>
         </is>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>perceived positive Human-Robot-Interaction</t>
+          <t>perceived positive anthropomorphism</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Natural Interactions</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Highlights the importance of human-like movements, gestures, and reactions to enhance the realism and comfort of interactions with socially assistive robots.</t>
+          <t>Identifies instances where participants express a preference for socially assistive robots designed with soft, relatable materials, such as silicone, which foster physical affection and make the robot more approachable and human-like.</t>
         </is>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -663,115 +663,115 @@
         </is>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>perceived negative anthropomorphism</t>
+          <t>perceived positive anthropomorphism</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Limitations</t>
+          <t>Emotional Support</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Highlights the acknowledgment of the limitations of robots in understanding and responding to human emotions and needs, particularly in providing genuine emotional support and connection.</t>
+          <t>Captures instances where participants attribute emotional support qualities to socially assistive robots, viewing them as friends or listeners that aid in coping with thoughts and feelings, especially in challenging emotional situations.</t>
         </is>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>perceived positive anthropomorphism</t>
+          <t>perceived negative Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Emotional Support</t>
+          <t>Superficial Interaction</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Captures instances where participants attribute emotional support qualities to socially assistive robots, viewing them as friends or listeners that aid in coping with thoughts and feelings, especially in challenging emotional situations.</t>
+          <t>Identifies concerns that robot interactions may feel insincere or lack depth compared to human connections.</t>
         </is>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>perceived negative Human-Robot-Interaction</t>
+          <t>perceived positive Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lack of Humanity</t>
+          <t>Individualized Attention</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Captures instances where participants express a sense of loss or absence in human interactions and empathy that cannot be adequately replaced by socially assistive robots in the context of Human-Robot-Interaction, emphasizing a preference for personalized and emotionally engaging experiences.</t>
+          <t>Identifies instances where the potential benefits of socially assistive robots are highlighted through the provision of personalized and individualized attention, such as tailoring care to specific needs in settings like nursing homes.</t>
         </is>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>perceived positive anthropomorphism</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Potential Physical Harm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express a preference for socially assistive robots designed with soft, relatable materials, such as silicone, which foster physical affection and make the robot more approachable and human-like.</t>
+          <t>Identifies instances where participants express concerns about the potential for physically harmful outcomes due to malfunctioning socially assistive robots, particularly unpredictable or unintended reactions.</t>
         </is>
       </c>
       <c r="E15">
@@ -784,50 +784,50 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Technical Issues</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Captures instances where participants highlight the potential benefits of socially assistive robots in enhancing safety through quick emergency response capabilities and accuracy, and being available 24/7.</t>
+          <t>Identifies instances where participants express concerns or frustrations related to malfunctions, glitches, or limitations in the technical performance of socially assistive robots, highlighting potential disruptions or challenges in their use.</t>
         </is>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>perceived risks</t>
+          <t>perceived positive Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Technical Issues</t>
+          <t>Natural Interactions</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express concerns or frustrations related to malfunctions, glitches, or limitations in the technical performance of socially assistive robots, highlighting potential disruptions or challenges in their use.</t>
+          <t>Highlights the importance of human-like movements, gestures, and reactions to enhance the realism and comfort of interactions with socially assistive robots.</t>
         </is>
       </c>
       <c r="E17">
@@ -850,19 +850,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Therapy</t>
+          <t>Versatility</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Identifies instances where socially assistive robots are discussed as potential tools for therapy.</t>
+          <t>Captures instances where participants highlight the diverse range of tasks and functions that socially assistive robots can perform, emphasizing their versatility in different contexts and applications.</t>
         </is>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -906,16 +906,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Individual Response</t>
+          <t>Unhealthy Relationships</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Captures the varying individual reactions to physical closeness in the context of Human-Robot-Interaction, highlighting differing preferences and triggers among participants, with a focus on comfort levels and diverse personal boundaries.</t>
+          <t>Identifies instances in the data where participants express concerns or negative experiences related to the quality or dynamics of their interactions with socially assistive robots, highlighting potential risks and challenges in forming meaningful connections.</t>
         </is>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -934,19 +934,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Individualized Attention</t>
+          <t>Therapy Success</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Identifies instances where the potential benefits of socially assistive robots are highlighted through the provision of personalized and individualized attention, such as tailoring care to specific needs in settings like nursing homes.</t>
+          <t>Identifies instances where participants express the potential benefits of socially assistive robots in supporting therapy, such as helping individuals with autism or related disorders, and fostering emotional attachment as a measure of success.</t>
         </is>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_first20.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_first20.xlsx
@@ -392,197 +392,197 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>perceived positive Human-Robot-Interaction</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Emotional Support and Social Interaction</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Identifies instances where socially assistive robots are seen as encouraging social interaction, particularly for introverted or lonely individuals, fostering increased engagement with others. This also includes their role in providing emotional support and companionship, focusing on the benefits of fostering connections and addressing social isolation.</t>
+          <t>Highlights instances where participants evaluate the differences in materials used in socially assistive robots, with a focus on the low risk of injury during interactions or accidents due to the soft materials, leading to higher acceptance.</t>
         </is>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>perceived positive Human-Robot-Interaction</t>
+          <t>perceived positive anthropomorphism</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Target Demographic</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Identifies references to specific groups or populations that socially assistive robots are designed to benefit, such as socially isolated individuals or the elderly, within the context of discussing the key benefits and risks of Human-Robot-Interaction.</t>
+          <t>Identifies instances where participants express a preference for socially assistive robots designed with soft, relatable materials, such as silicone, which foster physical affection and make the robot more approachable and human-like.</t>
         </is>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AN</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>perceived negative anthropomorphism</t>
+          <t>perceived negative Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lack of Empathy</t>
+          <t>Emotional Dependence</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Captures the inability of socially assistive robots to convey human warmth or genuine emotional connection, highlighting a key concern in the context of perceived negative anthropomorphism.</t>
+          <t>Identifies instances where individuals form emotional attachments to socially assistive robots, viewing them as companions or substitutes for human relationships, highlighting concerns around emotional replacement, emotional blunting, and pseudo-relationships.</t>
         </is>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>perceived negative Human-Robot-Interaction</t>
+          <t>perceived positive Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lack of Humanity</t>
+          <t>Emotional Support and Social Interaction</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Captures instances where participants express a sense of loss or absence in human interactions and empathy that cannot be adequately replaced by socially assistive robots in the context of Human-Robot-Interaction, emphasizing a preference for personalized and emotionally engaging experiences.</t>
+          <t>Identifies instances where socially assistive robots are seen as encouraging social interaction, particularly for introverted or lonely individuals, fostering increased engagement with others. This also includes their role in providing emotional support and companionship, focusing on the benefits of fostering connections and addressing social isolation.</t>
         </is>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>perceived technological limitations</t>
+          <t>perceived positive anthropomorphism</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Limited Assistance</t>
+          <t>Emotional Support</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Denotes instances where participants express concerns about socially assistive robots being able to offer only restricted support, particularly in urgent or critical scenarios.</t>
+          <t>Captures instances where participants attribute emotional support qualities to socially assistive robots, viewing them as friends or listeners that aid in coping with thoughts and feelings, especially in challenging emotional situations.</t>
         </is>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>perceived negative Human-Robot-Interaction</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Emotional Dependence</t>
+          <t>Potential Physical Harm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Identifies instances where individuals form emotional attachments to socially assistive robots, viewing them as companions or substitutes for human relationships, highlighting concerns around emotional replacement, emotional blunting, and pseudo-relationships.</t>
+          <t>Identifies instances where participants express concerns about the potential for physically harmful outcomes due to malfunctioning socially assistive robots, particularly unpredictable or unintended reactions.</t>
         </is>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived negative anthropomorphism</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Limitations</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Highlights instances where participants evaluate the differences in materials used in socially assistive robots, with a focus on the low risk of injury during interactions or accidents due to the soft materials, leading to higher acceptance.</t>
+          <t>Highlights the acknowledgment of the limitations of robots in understanding and responding to human emotions and needs, particularly in providing genuine emotional support and connection.</t>
         </is>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -598,212 +598,212 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Limitations</t>
+          <t>Lack of Empathy</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Highlights the acknowledgment of the limitations of robots in understanding and responding to human emotions and needs, particularly in providing genuine emotional support and connection.</t>
+          <t>Captures the inability of socially assistive robots to convey human warmth or genuine emotional connection, highlighting a key concern in the context of perceived negative anthropomorphism.</t>
         </is>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>perceived positive anthropomorphism</t>
+          <t>perceived positive Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Haptics</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express a preference for socially assistive robots designed with soft, relatable materials, such as silicone, which foster physical affection and make the robot more approachable and human-like.</t>
+          <t>Captures instances where participants express appreciation for tactile interactions and the incorporation of materials like fur to enhance acceptance in Human-Robot-Interaction, highlighting the positive evaluation of lifelike features in soft, socially assistive robots.</t>
         </is>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>perceived technological limitations</t>
+          <t>perceived positive Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lower Adaptability</t>
+          <t>Natural Interactions</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express concerns about the restricted ability to personalize or modify socially assistive robots to suit individual needs or preferences, and their limited flexibility in adapting to different environments or changing user requirements.</t>
+          <t>Highlights the importance of human-like movements, gestures, and reactions to enhance the realism and comfort of interactions with socially assistive robots.</t>
         </is>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>perceived positive anthropomorphism</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Emotional Support</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Captures instances where participants attribute emotional support qualities to socially assistive robots, viewing them as friends or listeners that aid in coping with thoughts and feelings, especially in challenging emotional situations.</t>
+          <t>Captures instances where participants highlight the potential benefits of socially assistive robots in enhancing safety through quick emergency response capabilities and accuracy, and being available 24/7.</t>
         </is>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>perceived negative Human-Robot-Interaction</t>
+          <t>perceived positive anthropomorphism</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Superficial Interaction</t>
+          <t>Connection</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Identifies concerns that robot interactions may feel insincere or lack depth compared to human connections.</t>
+          <t>Captures instances where participants express the ease of forming a relational connection with socially assistive robots, highlighting the role of design elements, like soft materials, in facilitating human-robot bonds.</t>
         </is>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>perceived positive Human-Robot-Interaction</t>
+          <t>perceived negative Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Individualized Attention</t>
+          <t>Unhealthy Relationships</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Identifies instances where the potential benefits of socially assistive robots are highlighted through the provision of personalized and individualized attention, such as tailoring care to specific needs in settings like nursing homes.</t>
+          <t>Identifies instances in the data where participants express concerns or negative experiences related to the quality or dynamics of their interactions with socially assistive robots, highlighting potential risks and challenges in forming meaningful connections.</t>
         </is>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>perceived risks</t>
+          <t>perceived negative Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Potential Physical Harm</t>
+          <t>Lack of Humanity</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express concerns about the potential for physically harmful outcomes due to malfunctioning socially assistive robots, particularly unpredictable or unintended reactions.</t>
+          <t>Captures instances where participants express a sense of loss or absence in human interactions and empathy that cannot be adequately replaced by socially assistive robots in the context of Human-Robot-Interaction, emphasizing a preference for personalized and emotionally engaging experiences.</t>
         </is>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>perceived risks</t>
+          <t>perceived negative Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Technical Issues</t>
+          <t>Superficial Interaction</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express concerns or frustrations related to malfunctions, glitches, or limitations in the technical performance of socially assistive robots, highlighting potential disruptions or challenges in their use.</t>
+          <t>Identifies concerns that robot interactions may feel insincere or lack depth compared to human connections.</t>
         </is>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>7</v>
@@ -822,131 +822,131 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Natural Interactions</t>
+          <t>Therapy Success</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Highlights the importance of human-like movements, gestures, and reactions to enhance the realism and comfort of interactions with socially assistive robots.</t>
+          <t>Identifies instances where participants express the potential benefits of socially assistive robots in supporting therapy, such as helping individuals with autism or related disorders, and fostering emotional attachment as a measure of success.</t>
         </is>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>perceived technological possibilities</t>
+          <t>perceived positive Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Versatility</t>
+          <t>Target Demographic</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Captures instances where participants highlight the diverse range of tasks and functions that socially assistive robots can perform, emphasizing their versatility in different contexts and applications.</t>
+          <t>Identifies references to specific groups or populations that socially assistive robots are designed to benefit, such as socially isolated individuals or the elderly, within the context of discussing the key benefits and risks of Human-Robot-Interaction.</t>
         </is>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>perceived technological possibilities</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Usability</t>
+          <t>Technical Issues</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Captures references to concerns about the functionality and practicality of socially assistive robots, including issues related to technical malfunctions and potential user health impacts.</t>
+          <t>Identifies instances where participants express concerns or frustrations related to malfunctions, glitches, or limitations in the technical performance of socially assistive robots, highlighting potential disruptions or challenges in their use.</t>
         </is>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>perceived negative Human-Robot-Interaction</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Unhealthy Relationships</t>
+          <t>Objectivity</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Identifies instances in the data where participants express concerns or negative experiences related to the quality or dynamics of their interactions with socially assistive robots, highlighting potential risks and challenges in forming meaningful connections.</t>
+          <t>Identifies instances where participants express expectations that robots should excel in decision-making due to their perceived lack of emotional bias compared to humans.</t>
         </is>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>perceived positive Human-Robot-Interaction</t>
+          <t>perceived negative anthropomorphism</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Therapy Success</t>
+          <t>Technological Advancement</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express the potential benefits of socially assistive robots in supporting therapy, such as helping individuals with autism or related disorders, and fostering emotional attachment as a measure of success.</t>
+          <t>Identifies instances where participants express observations or concerns about the blurring boundary between humans and machines in the context of socially assistive robots, reflecting on the impact of technological advancement.</t>
         </is>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_first20.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_first20.xlsx
@@ -380,12 +380,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>soft</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>rigid</t>
         </is>
       </c>
     </row>
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
         <v>10</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -439,10 +439,10 @@
         </is>
       </c>
       <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
         <v>8</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
         <v>8</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -495,10 +495,10 @@
         </is>
       </c>
       <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
         <v>6</v>
-      </c>
-      <c r="F5">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
         <v>4</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
         <v>4</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>4</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
         <v>4</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <v>4</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
         <v>3</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
         <v>3</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
         <v>3</v>
-      </c>
-      <c r="F15">
-        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
         <v>3</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -831,10 +831,10 @@
         </is>
       </c>
       <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
         <v>3</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
         <v>3</v>
-      </c>
-      <c r="F18">
-        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
         <v>3</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
         <v>3</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
